--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lgals1-Ptprc.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lgals1-Ptprc.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.88469033333334</v>
+        <v>1.576331333333333</v>
       </c>
       <c r="H2">
-        <v>50.654071</v>
+        <v>4.728994</v>
       </c>
       <c r="I2">
-        <v>0.06267206522474383</v>
+        <v>0.01463337290888519</v>
       </c>
       <c r="J2">
-        <v>0.06267206522474383</v>
+        <v>0.01463337290888519</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -552,28 +552,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>253.694895</v>
+        <v>0.09920366666666665</v>
       </c>
       <c r="N2">
-        <v>761.084685</v>
+        <v>0.297611</v>
       </c>
       <c r="O2">
-        <v>0.9997613056333584</v>
+        <v>0.641640866873065</v>
       </c>
       <c r="P2">
-        <v>0.9997613056333585</v>
+        <v>0.6416408668730651</v>
       </c>
       <c r="Q2">
-        <v>4283.559741222515</v>
+        <v>0.1563778481482222</v>
       </c>
       <c r="R2">
-        <v>38552.03767100264</v>
+        <v>1.407400633334</v>
       </c>
       <c r="S2">
-        <v>0.06265710575582889</v>
+        <v>0.009389370078533917</v>
       </c>
       <c r="T2">
-        <v>0.0626571057558289</v>
+        <v>0.00938937007853392</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.88469033333334</v>
+        <v>1.576331333333333</v>
       </c>
       <c r="H3">
-        <v>50.654071</v>
+        <v>4.728994</v>
       </c>
       <c r="I3">
-        <v>0.06267206522474383</v>
+        <v>0.01463337290888519</v>
       </c>
       <c r="J3">
-        <v>0.06267206522474383</v>
+        <v>0.01463337290888519</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>0.08259900000000001</v>
       </c>
       <c r="O3">
-        <v>0.0001085020966937599</v>
+        <v>0.178081099028088</v>
       </c>
       <c r="P3">
-        <v>0.0001085020966937599</v>
+        <v>0.1780810990280881</v>
       </c>
       <c r="Q3">
-        <v>0.4648861789476668</v>
+        <v>0.04340113060066667</v>
       </c>
       <c r="R3">
-        <v>4.183975610529</v>
+        <v>0.390610175406</v>
       </c>
       <c r="S3">
-        <v>6.800050481012781E-06</v>
+        <v>0.002605927130102124</v>
       </c>
       <c r="T3">
-        <v>6.800050481012782E-06</v>
+        <v>0.002605927130102124</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,46 +658,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.88469033333334</v>
+        <v>1.576331333333333</v>
       </c>
       <c r="H4">
-        <v>50.654071</v>
+        <v>4.728994</v>
       </c>
       <c r="I4">
-        <v>0.06267206522474383</v>
+        <v>0.01463337290888519</v>
       </c>
       <c r="J4">
-        <v>0.06267206522474383</v>
+        <v>0.01463337290888519</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.033037</v>
+        <v>0.02787266666666667</v>
       </c>
       <c r="N4">
-        <v>0.099111</v>
+        <v>0.083618</v>
       </c>
       <c r="O4">
-        <v>0.0001301922699477625</v>
+        <v>0.180278034098847</v>
       </c>
       <c r="P4">
-        <v>0.0001301922699477625</v>
+        <v>0.180278034098847</v>
       </c>
       <c r="Q4">
-        <v>0.5578195145423335</v>
+        <v>0.04393655781022222</v>
       </c>
       <c r="R4">
-        <v>5.020375630881</v>
+        <v>0.395429020292</v>
       </c>
       <c r="S4">
-        <v>8.15941843392363E-06</v>
+        <v>0.002638075700249148</v>
       </c>
       <c r="T4">
-        <v>8.15941843392363E-06</v>
+        <v>0.002638075700249148</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>74.31489566666667</v>
+        <v>74.31489566666666</v>
       </c>
       <c r="H5">
         <v>222.944687</v>
       </c>
       <c r="I5">
-        <v>0.2758397042791309</v>
+        <v>0.6898788078237544</v>
       </c>
       <c r="J5">
-        <v>0.2758397042791309</v>
+        <v>0.6898788078237544</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -738,28 +738,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>253.694895</v>
+        <v>0.09920366666666665</v>
       </c>
       <c r="N5">
-        <v>761.084685</v>
+        <v>0.297611</v>
       </c>
       <c r="O5">
-        <v>0.9997613056333584</v>
+        <v>0.641640866873065</v>
       </c>
       <c r="P5">
-        <v>0.9997613056333585</v>
+        <v>0.6416408668730651</v>
       </c>
       <c r="Q5">
-        <v>18853.30965309096</v>
+        <v>7.372310138084109</v>
       </c>
       <c r="R5">
-        <v>169679.7868778186</v>
+        <v>66.35079124275698</v>
       </c>
       <c r="S5">
-        <v>0.2757738628956234</v>
+        <v>0.4426544362893904</v>
       </c>
       <c r="T5">
-        <v>0.2757738628956234</v>
+        <v>0.4426544362893905</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>74.31489566666667</v>
+        <v>74.31489566666666</v>
       </c>
       <c r="H6">
         <v>222.944687</v>
       </c>
       <c r="I6">
-        <v>0.2758397042791309</v>
+        <v>0.6898788078237544</v>
       </c>
       <c r="J6">
-        <v>0.2758397042791309</v>
+        <v>0.6898788078237544</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,22 +806,22 @@
         <v>0.08259900000000001</v>
       </c>
       <c r="O6">
-        <v>0.0001085020966937599</v>
+        <v>0.178081099028088</v>
       </c>
       <c r="P6">
-        <v>0.0001085020966937599</v>
+        <v>0.1780810990280881</v>
       </c>
       <c r="Q6">
-        <v>2.046112022390334</v>
+        <v>2.046112022390333</v>
       </c>
       <c r="R6">
         <v>18.415008201513</v>
       </c>
       <c r="S6">
-        <v>2.992918626567239E-05</v>
+        <v>0.1228543762934413</v>
       </c>
       <c r="T6">
-        <v>2.99291862656724E-05</v>
+        <v>0.1228543762934413</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,46 +844,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>74.31489566666667</v>
+        <v>74.31489566666666</v>
       </c>
       <c r="H7">
         <v>222.944687</v>
       </c>
       <c r="I7">
-        <v>0.2758397042791309</v>
+        <v>0.6898788078237544</v>
       </c>
       <c r="J7">
-        <v>0.2758397042791309</v>
+        <v>0.6898788078237544</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.033037</v>
+        <v>0.02787266666666667</v>
       </c>
       <c r="N7">
-        <v>0.099111</v>
+        <v>0.083618</v>
       </c>
       <c r="O7">
-        <v>0.0001301922699477625</v>
+        <v>0.180278034098847</v>
       </c>
       <c r="P7">
-        <v>0.0001301922699477625</v>
+        <v>0.180278034098847</v>
       </c>
       <c r="Q7">
-        <v>2.455141208139667</v>
+        <v>2.071354315285111</v>
       </c>
       <c r="R7">
-        <v>22.096270873257</v>
+        <v>18.642188837566</v>
       </c>
       <c r="S7">
-        <v>3.59121972418196E-05</v>
+        <v>0.1243699952409227</v>
       </c>
       <c r="T7">
-        <v>3.59121972418196E-05</v>
+        <v>0.1243699952409227</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>178.2137526666667</v>
+        <v>31.83044066666666</v>
       </c>
       <c r="H8">
-        <v>534.641258</v>
+        <v>95.491322</v>
       </c>
       <c r="I8">
-        <v>0.6614882304961253</v>
+        <v>0.2954878192673605</v>
       </c>
       <c r="J8">
-        <v>0.6614882304961253</v>
+        <v>0.2954878192673605</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -924,28 +924,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>253.694895</v>
+        <v>0.09920366666666665</v>
       </c>
       <c r="N8">
-        <v>761.084685</v>
+        <v>0.297611</v>
       </c>
       <c r="O8">
-        <v>0.9997613056333584</v>
+        <v>0.641640866873065</v>
       </c>
       <c r="P8">
-        <v>0.9997613056333585</v>
+        <v>0.6416408668730651</v>
       </c>
       <c r="Q8">
-        <v>45211.91927032597</v>
+        <v>3.15769642574911</v>
       </c>
       <c r="R8">
-        <v>406907.2734329337</v>
+        <v>28.41926783174199</v>
       </c>
       <c r="S8">
-        <v>0.6613303369819061</v>
+        <v>0.1895970605051407</v>
       </c>
       <c r="T8">
-        <v>0.6613303369819062</v>
+        <v>0.1895970605051408</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>178.2137526666667</v>
+        <v>31.83044066666666</v>
       </c>
       <c r="H9">
-        <v>534.641258</v>
+        <v>95.491322</v>
       </c>
       <c r="I9">
-        <v>0.6614882304961253</v>
+        <v>0.2954878192673605</v>
       </c>
       <c r="J9">
-        <v>0.6614882304961253</v>
+        <v>0.2954878192673605</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,22 +992,22 @@
         <v>0.08259900000000001</v>
       </c>
       <c r="O9">
-        <v>0.0001085020966937599</v>
+        <v>0.178081099028088</v>
       </c>
       <c r="P9">
-        <v>0.0001085020966937599</v>
+        <v>0.1780810990280881</v>
       </c>
       <c r="Q9">
-        <v>4.906759252171334</v>
+        <v>0.8763875228753333</v>
       </c>
       <c r="R9">
-        <v>44.160833269542</v>
+        <v>7.887487705878001</v>
       </c>
       <c r="S9">
-        <v>7.177285994707471E-05</v>
+        <v>0.0526207956045446</v>
       </c>
       <c r="T9">
-        <v>7.177285994707471E-05</v>
+        <v>0.05262079560454461</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,46 +1030,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>178.2137526666667</v>
+        <v>31.83044066666666</v>
       </c>
       <c r="H10">
-        <v>534.641258</v>
+        <v>95.491322</v>
       </c>
       <c r="I10">
-        <v>0.6614882304961253</v>
+        <v>0.2954878192673605</v>
       </c>
       <c r="J10">
-        <v>0.6614882304961253</v>
+        <v>0.2954878192673605</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.033037</v>
+        <v>0.02787266666666667</v>
       </c>
       <c r="N10">
-        <v>0.099111</v>
+        <v>0.083618</v>
       </c>
       <c r="O10">
-        <v>0.0001301922699477625</v>
+        <v>0.180278034098847</v>
       </c>
       <c r="P10">
-        <v>0.0001301922699477625</v>
+        <v>0.180278034098847</v>
       </c>
       <c r="Q10">
-        <v>5.887647746848668</v>
+        <v>0.8871992625551111</v>
       </c>
       <c r="R10">
-        <v>52.98882972163801</v>
+        <v>7.984793362995999</v>
       </c>
       <c r="S10">
-        <v>8.61206542720193E-05</v>
+        <v>0.05326996315767516</v>
       </c>
       <c r="T10">
-        <v>8.61206542720193E-05</v>
+        <v>0.05326996315767516</v>
       </c>
     </row>
   </sheetData>
